--- a/tips-add-to-left-of-table.xlsx
+++ b/tips-add-to-left-of-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4607BEAD-8F10-47C0-A349-6EB2403A3995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD026D-B57C-4E48-8AD4-643B3B3E079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{469AFC0A-EFA2-43E4-A357-A9D9D6E5CE88}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B24F4384-3000-4041-82E3-034B027CAAD9}" name="Table2" displayName="Table2" ref="A1:G245" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B24F4384-3000-4041-82E3-034B027CAAD9}" name="tips" displayName="tips" ref="A1:G245" totalsRowShown="0">
   <autoFilter ref="A1:G245" xr:uid="{B24F4384-3000-4041-82E3-034B027CAAD9}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5AA2948B-0281-4E5D-920A-4D4A713E6A9E}" name="total_bill"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:G245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.7" x14ac:dyDescent="0.7"/>
